--- a/uploads/product_example.xlsx
+++ b/uploads/product_example.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
